--- a/thesis/Chronology of dates and papers published.xlsx
+++ b/thesis/Chronology of dates and papers published.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vyomv\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAHAJVI1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCF728A-1CBA-4DD3-98D6-2C7E73DEFBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38910DF0-77EA-4015-8481-2A19E0CF6504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>Provisional PhD start date</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>Registration number: 20916020106</t>
+  </si>
+  <si>
+    <t>Viva exam</t>
+  </si>
+  <si>
+    <t>Viva and public defense</t>
   </si>
 </sst>
 </file>
@@ -428,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -465,6 +471,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -853,16 +860,16 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:8" ht="30" x14ac:dyDescent="0.25">
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,7 +883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E4" s="3">
         <v>42221</v>
       </c>
@@ -890,7 +897,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D7" s="3">
         <v>42695</v>
       </c>
@@ -898,7 +905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D9" s="4">
         <v>44682</v>
       </c>
@@ -906,7 +913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="4:8" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:8" ht="195" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>6</v>
       </c>
@@ -914,7 +921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>6</v>
       </c>
@@ -936,20 +943,20 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="76.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="76.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="67" customWidth="1"/>
-    <col min="5" max="5" width="71.33203125" customWidth="1"/>
+    <col min="5" max="5" width="71.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -963,7 +970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>42221</v>
       </c>
@@ -974,7 +981,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>42669</v>
       </c>
@@ -985,7 +992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>42694</v>
       </c>
@@ -996,7 +1003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>42695</v>
       </c>
@@ -1010,7 +1017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>42793</v>
       </c>
@@ -1024,7 +1031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>42795</v>
       </c>
@@ -1038,7 +1045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>42929</v>
       </c>
@@ -1050,7 +1057,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>43451</v>
       </c>
@@ -1067,7 +1074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>43452</v>
       </c>
@@ -1078,7 +1085,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
@@ -1095,7 +1102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43770</v>
       </c>
@@ -1112,7 +1119,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>43770</v>
       </c>
@@ -1126,7 +1133,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>43845</v>
       </c>
@@ -1140,7 +1147,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44105</v>
       </c>
@@ -1149,7 +1156,7 @@
       </c>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44490</v>
       </c>
@@ -1158,7 +1165,7 @@
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>44682</v>
       </c>
@@ -1172,7 +1179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>44793</v>
       </c>
@@ -1186,7 +1193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>44862</v>
       </c>
@@ -1197,8 +1204,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <v>45173</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1217,15 +1235,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="128" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>48</v>
       </c>
@@ -1239,7 +1257,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1253,7 +1271,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1267,7 +1285,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1281,7 +1299,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1295,7 +1313,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1309,7 +1327,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1323,7 +1341,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1337,7 +1355,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1351,7 +1369,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1365,7 +1383,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1379,7 +1397,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1393,7 +1411,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1407,7 +1425,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1421,7 +1439,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1435,7 +1453,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1449,7 +1467,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1463,7 +1481,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
